--- a/biology/Botanique/Nils_Johan_Andersson/Nils_Johan_Andersson.xlsx
+++ b/biology/Botanique/Nils_Johan_Andersson/Nils_Johan_Andersson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nils Jordan Andersson est un botaniste suédois, né le 20 février 1821 et mort le 27 mars 1880 à Stockholm.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie la botanique à Stockholm. Il participe à une expédition autour du monde (1851-1853) à bord de la frégate suédoise Eugenie (en)[1] et récolte des spécimens d'herbier notamment aux environs de Sidney et sur les îles Keeling[2]. Il enseigne à Lund et à Stockholm. Il est conservateur des collections botaniques de l’Académie des sciences. Il est l’auteur de travaux sur les saules et sur la flore scandinave et la Laponie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie la botanique à Stockholm. Il participe à une expédition autour du monde (1851-1853) à bord de la frégate suédoise Eugenie (en) et récolte des spécimens d'herbier notamment aux environs de Sidney et sur les îles Keeling. Il enseigne à Lund et à Stockholm. Il est conservateur des collections botaniques de l’Académie des sciences. Il est l’auteur de travaux sur les saules et sur la flore scandinave et la Laponie.
 Andersson est le père du peintre J.A.G. Acke.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Monographia salicum, Stockholm, coll. « Kongliga Svenska Vetenskaps-Akademiens Handlingar [Series 2] » (no 61,1), 1867, 180 p.
 Aperçu de la végétation et des plantes cultivées de la Suède, Stockholm, P.A. Norstedt, 1867, 94 p.
